--- a/data_year/zb/文化/艺术表演团体基本情况/艺术表演团体国内演出场次.xlsx
+++ b/data_year/zb/文化/艺术表演团体基本情况/艺术表演团体国内演出场次.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,755 +543,675 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.43</v>
+        <v>3.64</v>
       </c>
       <c r="C2" t="n">
-        <v>2.53</v>
+        <v>6.52</v>
       </c>
       <c r="D2" t="n">
-        <v>11.92</v>
+        <v>19.19</v>
       </c>
       <c r="E2" t="n">
-        <v>386.18</v>
+        <v>850.54</v>
       </c>
       <c r="F2" t="n">
-        <v>449.79</v>
+        <v>849.65</v>
       </c>
       <c r="G2" t="n">
-        <v>670.03</v>
+        <v>1076.15</v>
       </c>
       <c r="H2" t="n">
-        <v>373.3</v>
+        <v>354.36</v>
       </c>
       <c r="I2" t="n">
-        <v>130.84</v>
+        <v>141.61</v>
       </c>
       <c r="J2" t="n">
-        <v>320.47</v>
+        <v>460.35</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>402.14</v>
+        <v>428.17</v>
       </c>
       <c r="N2" t="n">
-        <v>48.04</v>
+        <v>38.88</v>
       </c>
       <c r="O2" t="n">
-        <v>256.03</v>
+        <v>370.01</v>
       </c>
       <c r="P2" t="n">
-        <v>16.16</v>
+        <v>28.46</v>
       </c>
       <c r="Q2" t="n">
-        <v>75.88</v>
+        <v>145.15</v>
       </c>
       <c r="R2" t="n">
-        <v>47.63</v>
+        <v>56.42</v>
       </c>
       <c r="S2" t="n">
-        <v>93.81</v>
+        <v>213.7</v>
       </c>
       <c r="T2" t="n">
-        <v>851.9299999999999</v>
+        <v>1277.82</v>
       </c>
       <c r="U2" t="n">
-        <v>39.01</v>
+        <v>14.76</v>
       </c>
       <c r="V2" t="n">
-        <v>92.45</v>
+        <v>72.92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.05</v>
+        <v>4.02</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>7.41</v>
       </c>
       <c r="D3" t="n">
-        <v>19.59</v>
+        <v>19.55</v>
       </c>
       <c r="E3" t="n">
-        <v>702.8200000000001</v>
+        <v>1037.84</v>
       </c>
       <c r="F3" t="n">
-        <v>704.49</v>
+        <v>1051.41</v>
       </c>
       <c r="G3" t="n">
-        <v>936.39</v>
+        <v>1268.94</v>
       </c>
       <c r="H3" t="n">
-        <v>332.97</v>
+        <v>351.68</v>
       </c>
       <c r="I3" t="n">
-        <v>138.18</v>
+        <v>134.45</v>
       </c>
       <c r="J3" t="n">
-        <v>434.54</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+        <v>816.49</v>
+      </c>
+      <c r="K3" t="n">
+        <v>385.24</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1080.69</v>
+      </c>
       <c r="M3" t="n">
-        <v>421.86</v>
+        <v>414.52</v>
       </c>
       <c r="N3" t="n">
-        <v>36.65</v>
+        <v>37.3</v>
       </c>
       <c r="O3" t="n">
-        <v>342.32</v>
+        <v>146.98</v>
       </c>
       <c r="P3" t="n">
-        <v>22.93</v>
+        <v>24.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>171.82</v>
+        <v>159.98</v>
       </c>
       <c r="R3" t="n">
-        <v>48.73</v>
+        <v>58.52</v>
       </c>
       <c r="S3" t="n">
-        <v>100.47</v>
+        <v>256.59</v>
       </c>
       <c r="T3" t="n">
-        <v>1126.35</v>
+        <v>1465.93</v>
       </c>
       <c r="U3" t="n">
-        <v>12</v>
+        <v>16.77</v>
       </c>
       <c r="V3" t="n">
-        <v>90.55</v>
+        <v>76.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.64</v>
+        <v>2.63</v>
       </c>
       <c r="C4" t="n">
-        <v>6.52</v>
+        <v>8.67</v>
       </c>
       <c r="D4" t="n">
-        <v>19.19</v>
+        <v>21.83</v>
       </c>
       <c r="E4" t="n">
-        <v>850.54</v>
+        <v>800.3200000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>849.65</v>
+        <v>871.33</v>
       </c>
       <c r="G4" t="n">
-        <v>1076.15</v>
+        <v>1047.51</v>
       </c>
       <c r="H4" t="n">
-        <v>354.36</v>
+        <v>392.33</v>
       </c>
       <c r="I4" t="n">
-        <v>141.61</v>
+        <v>135.31</v>
       </c>
       <c r="J4" t="n">
-        <v>460.35</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+        <v>479.42</v>
+      </c>
+      <c r="K4" t="n">
+        <v>308.71</v>
+      </c>
+      <c r="L4" t="n">
+        <v>941.1</v>
+      </c>
       <c r="M4" t="n">
-        <v>428.17</v>
+        <v>378.47</v>
       </c>
       <c r="N4" t="n">
-        <v>38.88</v>
+        <v>32.75</v>
       </c>
       <c r="O4" t="n">
-        <v>370.01</v>
+        <v>278.55</v>
       </c>
       <c r="P4" t="n">
-        <v>28.46</v>
+        <v>32.54</v>
       </c>
       <c r="Q4" t="n">
-        <v>145.15</v>
+        <v>162.32</v>
       </c>
       <c r="R4" t="n">
-        <v>56.42</v>
+        <v>64.38</v>
       </c>
       <c r="S4" t="n">
-        <v>213.7</v>
+        <v>201.12</v>
       </c>
       <c r="T4" t="n">
-        <v>1277.82</v>
+        <v>1249.81</v>
       </c>
       <c r="U4" t="n">
-        <v>14.76</v>
+        <v>54.47</v>
       </c>
       <c r="V4" t="n">
-        <v>72.92</v>
+        <v>57.16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="C5" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.55</v>
-      </c>
+        <v>3.2</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>1037.84</v>
+        <v>1294.01</v>
       </c>
       <c r="F5" t="n">
-        <v>1051.41</v>
+        <v>1252.44</v>
       </c>
       <c r="G5" t="n">
-        <v>1268.94</v>
+        <v>1475.45</v>
       </c>
       <c r="H5" t="n">
-        <v>351.68</v>
+        <v>277.89</v>
       </c>
       <c r="I5" t="n">
-        <v>134.45</v>
-      </c>
-      <c r="J5" t="n">
-        <v>816.49</v>
-      </c>
+        <v>89.98999999999999</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>385.24</v>
+        <v>277.13</v>
       </c>
       <c r="L5" t="n">
-        <v>1080.69</v>
+        <v>1350.97</v>
       </c>
       <c r="M5" t="n">
-        <v>414.52</v>
-      </c>
-      <c r="N5" t="n">
-        <v>37.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>146.98</v>
-      </c>
-      <c r="P5" t="n">
-        <v>24.42</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>159.98</v>
-      </c>
+        <v>375.68</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>58.52</v>
-      </c>
-      <c r="S5" t="n">
-        <v>256.59</v>
-      </c>
+        <v>59.46</v>
+      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>1465.93</v>
-      </c>
-      <c r="U5" t="n">
-        <v>16.77</v>
-      </c>
+        <v>1628.1</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>76.42</v>
+        <v>56.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.83</v>
-      </c>
+        <v>3.52</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>800.3200000000001</v>
+        <v>1383.91</v>
       </c>
       <c r="F6" t="n">
-        <v>871.33</v>
+        <v>1343.09</v>
       </c>
       <c r="G6" t="n">
-        <v>1047.51</v>
+        <v>1556.75</v>
       </c>
       <c r="H6" t="n">
-        <v>392.33</v>
+        <v>278.01</v>
       </c>
       <c r="I6" t="n">
-        <v>135.31</v>
-      </c>
-      <c r="J6" t="n">
-        <v>479.42</v>
-      </c>
+        <v>92.73</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>308.71</v>
+        <v>266.62</v>
       </c>
       <c r="L6" t="n">
-        <v>941.1</v>
+        <v>1444.22</v>
       </c>
       <c r="M6" t="n">
-        <v>378.47</v>
-      </c>
-      <c r="N6" t="n">
-        <v>32.75</v>
-      </c>
-      <c r="O6" t="n">
-        <v>278.55</v>
-      </c>
-      <c r="P6" t="n">
-        <v>32.54</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>162.32</v>
-      </c>
+        <v>367.75</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>64.38</v>
-      </c>
-      <c r="S6" t="n">
-        <v>201.12</v>
-      </c>
+        <v>57.85</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>1249.81</v>
-      </c>
-      <c r="U6" t="n">
-        <v>54.47</v>
-      </c>
+        <v>1710.84</v>
+      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>57.16</v>
+        <v>48.91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1294.01</v>
+        <v>1760.24</v>
       </c>
       <c r="F7" t="n">
-        <v>1252.44</v>
+        <v>1720.82</v>
       </c>
       <c r="G7" t="n">
-        <v>1475.45</v>
+        <v>1941.39</v>
       </c>
       <c r="H7" t="n">
-        <v>277.89</v>
+        <v>285.56</v>
       </c>
       <c r="I7" t="n">
-        <v>89.98999999999999</v>
+        <v>90.59</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>277.13</v>
+        <v>268.84</v>
       </c>
       <c r="L7" t="n">
-        <v>1350.97</v>
+        <v>1823.89</v>
       </c>
       <c r="M7" t="n">
-        <v>375.68</v>
+        <v>371.91</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>59.46</v>
+        <v>57.67</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>1628.1</v>
+        <v>2092.73</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>56.22</v>
+        <v>46.94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.52</v>
+        <v>2.89</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>1383.91</v>
+        <v>1958</v>
       </c>
       <c r="F8" t="n">
-        <v>1343.09</v>
+        <v>1916.05</v>
       </c>
       <c r="G8" t="n">
-        <v>1556.75</v>
+        <v>2142.93</v>
       </c>
       <c r="H8" t="n">
-        <v>278.01</v>
+        <v>287.62</v>
       </c>
       <c r="I8" t="n">
-        <v>92.73</v>
+        <v>90.81</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>266.62</v>
+        <v>266.48</v>
       </c>
       <c r="L8" t="n">
-        <v>1444.22</v>
+        <v>2023.85</v>
       </c>
       <c r="M8" t="n">
-        <v>367.75</v>
+        <v>374.28</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>57.85</v>
+        <v>53.7</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
-        <v>1710.84</v>
+        <v>2290.33</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>48.91</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.08</v>
+        <v>2.84</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>1760.24</v>
+        <v>2564.52</v>
       </c>
       <c r="F9" t="n">
-        <v>1720.82</v>
+        <v>2528.89</v>
       </c>
       <c r="G9" t="n">
-        <v>1941.39</v>
+        <v>2767.16</v>
       </c>
       <c r="H9" t="n">
-        <v>285.56</v>
+        <v>311.45</v>
       </c>
       <c r="I9" t="n">
-        <v>90.59</v>
+        <v>95.88</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>268.84</v>
+        <v>277.88</v>
       </c>
       <c r="L9" t="n">
-        <v>1823.89</v>
+        <v>2643.62</v>
       </c>
       <c r="M9" t="n">
-        <v>371.91</v>
+        <v>392.61</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>57.67</v>
+        <v>55.63</v>
       </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>2092.73</v>
+        <v>2921.5</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>46.94</v>
+        <v>45.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>1958</v>
+        <v>2747</v>
       </c>
       <c r="F10" t="n">
-        <v>1916.05</v>
+        <v>2715</v>
       </c>
       <c r="G10" t="n">
-        <v>2142.93</v>
+        <v>2953</v>
       </c>
       <c r="H10" t="n">
-        <v>287.62</v>
+        <v>316</v>
       </c>
       <c r="I10" t="n">
-        <v>90.81</v>
+        <v>95</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>266.48</v>
+        <v>281</v>
       </c>
       <c r="L10" t="n">
-        <v>2023.85</v>
+        <v>2828</v>
       </c>
       <c r="M10" t="n">
-        <v>374.28</v>
+        <v>393</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>53.7</v>
+        <v>57</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="n">
-        <v>2290.33</v>
+        <v>3108.5</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>2564.52</v>
+        <v>2601</v>
       </c>
       <c r="F11" t="n">
-        <v>2528.89</v>
+        <v>2563</v>
       </c>
       <c r="G11" t="n">
-        <v>2767.16</v>
+        <v>2801</v>
       </c>
       <c r="H11" t="n">
-        <v>311.45</v>
+        <v>311</v>
       </c>
       <c r="I11" t="n">
-        <v>95.88</v>
+        <v>95</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>277.88</v>
+        <v>279</v>
       </c>
       <c r="L11" t="n">
-        <v>2643.62</v>
+        <v>2677</v>
       </c>
       <c r="M11" t="n">
-        <v>392.61</v>
+        <v>393</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>55.63</v>
+        <v>57</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>2921.5</v>
+        <v>2956.2</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="n">
-        <v>45.55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>2747</v>
+        <v>1981.9</v>
       </c>
       <c r="F12" t="n">
-        <v>2715</v>
+        <v>1960.6</v>
       </c>
       <c r="G12" t="n">
-        <v>2953</v>
+        <v>2126.6</v>
       </c>
       <c r="H12" t="n">
-        <v>316</v>
+        <v>214.8</v>
       </c>
       <c r="I12" t="n">
-        <v>95</v>
+        <v>61.5</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>281</v>
+        <v>185</v>
       </c>
       <c r="L12" t="n">
-        <v>2828</v>
+        <v>2041.5</v>
       </c>
       <c r="M12" t="n">
-        <v>393</v>
+        <v>262.7</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>3108.5</v>
+        <v>2226.5</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
-        <v>45</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>2601</v>
+        <v>2057.3</v>
       </c>
       <c r="F13" t="n">
-        <v>2563</v>
+        <v>2033.6</v>
       </c>
       <c r="G13" t="n">
-        <v>2801</v>
+        <v>2202.8</v>
       </c>
       <c r="H13" t="n">
-        <v>311</v>
+        <v>232.6</v>
       </c>
       <c r="I13" t="n">
-        <v>95</v>
+        <v>73.5</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>279</v>
+        <v>299.6</v>
       </c>
       <c r="L13" t="n">
-        <v>2677</v>
+        <v>2020.9</v>
       </c>
       <c r="M13" t="n">
-        <v>393</v>
+        <v>287</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>57</v>
+        <v>43.2</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>2956.2</v>
+        <v>2320.5</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>1981.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1960.6</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2126.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>214.8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>185</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2041.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>262.7</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
-        <v>34</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>2226.5</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="n">
-        <v>26.7</v>
+        <v>30.6</v>
       </c>
     </row>
   </sheetData>
